--- a/vecinos.xlsx
+++ b/vecinos.xlsx
@@ -14,105 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>C++</t>
   </si>
   <si>
-    <t>JavaScript 100%</t>
-  </si>
-  <si>
-    <t>Python 70%</t>
-  </si>
-  <si>
     <t>JavaScript</t>
   </si>
   <si>
-    <t>HTML/CSS 90%</t>
-  </si>
-  <si>
-    <t>SQL 90%</t>
-  </si>
-  <si>
-    <t>Node.js 50%</t>
-  </si>
-  <si>
-    <t>TypeScript 40%</t>
-  </si>
-  <si>
-    <t>Bash/Shell 40%</t>
-  </si>
-  <si>
-    <t>Java 40%</t>
-  </si>
-  <si>
-    <t>PHP 30%</t>
-  </si>
-  <si>
-    <t>C# 30%</t>
-  </si>
-  <si>
-    <t>C++ 20%</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
     <t>HTML/CSS</t>
   </si>
   <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Bash/Shell</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>TypeScript</t>
-  </si>
-  <si>
-    <t>Bash/Shell</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
     <t>C#</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Node.js</t>
-  </si>
-  <si>
-    <t>Nodo</t>
-  </si>
-  <si>
-    <t>Lenguaje 1</t>
-  </si>
-  <si>
-    <t>Lenguaje 2</t>
-  </si>
-  <si>
-    <t>Lenguaje 3</t>
-  </si>
-  <si>
-    <t>Lenguaje 4</t>
-  </si>
-  <si>
-    <t>Lenguaje 5</t>
-  </si>
-  <si>
-    <t>Lenguaje 6</t>
-  </si>
-  <si>
-    <t>Lenguaje 7</t>
-  </si>
-  <si>
-    <t>Lenguaje 8</t>
-  </si>
-  <si>
-    <t>Lenguaje 9</t>
-  </si>
-  <si>
-    <t>Lenguaje 10</t>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>Recomendado 1</t>
+  </si>
+  <si>
+    <t>Recomendado 2</t>
+  </si>
+  <si>
+    <t>Recomendado 3</t>
   </si>
 </sst>
 </file>
@@ -452,37 +398,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -498,140 +423,140 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -639,62 +564,62 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -702,22 +627,22 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
